--- a/Partial Components Regression/plot_infos_pcr_snv.xlsx
+++ b/Partial Components Regression/plot_infos_pcr_snv.xlsx
@@ -477,16 +477,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6983202269052741</v>
+        <v>0.6983202269055727</v>
       </c>
       <c r="D2" t="n">
-        <v>4.198865276153277</v>
+        <v>4.19886527614913</v>
       </c>
       <c r="E2" t="n">
-        <v>1.429581063127449</v>
+        <v>1.429581063126747</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6983202269052755</v>
+        <v>0.6983202269055722</v>
       </c>
     </row>
     <row r="3">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.6896071285762483</v>
+        <v>0.6896071285765546</v>
       </c>
       <c r="D3" t="n">
-        <v>4.325757900201753</v>
+        <v>4.325757900197462</v>
       </c>
       <c r="E3" t="n">
-        <v>1.472501160107113</v>
+        <v>1.472501160106388</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6799337285634935</v>
+        <v>0.679933728563809</v>
       </c>
     </row>
     <row r="4">
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.4200686495511044</v>
+        <v>0.4200685572530367</v>
       </c>
       <c r="D4" t="n">
-        <v>1.914545593650809</v>
+        <v>1.914545898357321</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2384655753110454</v>
+        <v>0.2384655942873526</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4200686495511047</v>
+        <v>0.4200685572530369</v>
       </c>
     </row>
     <row r="5">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.3795650414806654</v>
+        <v>0.3795649347936007</v>
       </c>
       <c r="D5" t="n">
-        <v>2.047327540906123</v>
+        <v>2.047327891980246</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2576036263584222</v>
+        <v>0.2576036505720172</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3232486283749658</v>
+        <v>0.3232485011517222</v>
       </c>
     </row>
     <row r="6">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.4443415628889881</v>
+        <v>0.4443415628876685</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6253411803158021</v>
+        <v>0.625341180317287</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4168251714799937</v>
+        <v>0.4168251714804886</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4443415628889883</v>
+        <v>0.4443415628876689</v>
       </c>
     </row>
     <row r="7">
@@ -597,16 +597,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4238434392714761</v>
+        <v>0.4238434392702012</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6487759254432088</v>
+        <v>0.6487759254446265</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4348087519200772</v>
+        <v>0.4348087519205488</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3953603931606616</v>
+        <v>0.3953603931593501</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.4957164145394055</v>
+        <v>0.4957164143343495</v>
       </c>
       <c r="D8" t="n">
-        <v>259.2674177679521</v>
+        <v>259.2674178733775</v>
       </c>
       <c r="E8" t="n">
-        <v>71.78687271822851</v>
+        <v>71.78687273282378</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4957164145394057</v>
+        <v>0.4957164143343502</v>
       </c>
     </row>
     <row r="9">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.4726041602485209</v>
+        <v>0.4726041600223095</v>
       </c>
       <c r="D9" t="n">
-        <v>271.175374807682</v>
+        <v>271.1753749264269</v>
       </c>
       <c r="E9" t="n">
-        <v>75.80335334505658</v>
+        <v>75.80335336996426</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4377083950945739</v>
+        <v>0.4377083947250553</v>
       </c>
     </row>
     <row r="10">
@@ -669,16 +669,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.620436667246156</v>
+        <v>0.6204366672464389</v>
       </c>
       <c r="D10" t="n">
-        <v>5.798142536333241</v>
+        <v>5.798142536328919</v>
       </c>
       <c r="E10" t="n">
-        <v>1.93856110749302</v>
+        <v>1.938561107492297</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6204366672461562</v>
+        <v>0.620436667246439</v>
       </c>
     </row>
     <row r="11">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6067678920334776</v>
+        <v>0.6067678920337862</v>
       </c>
       <c r="D11" t="n">
-        <v>6.010205649281278</v>
+        <v>6.01020564927658</v>
       </c>
       <c r="E11" t="n">
-        <v>2.012278428447818</v>
+        <v>2.012278428446951</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5910206280749872</v>
+        <v>0.5910206280753398</v>
       </c>
     </row>
   </sheetData>

--- a/Partial Components Regression/plot_infos_pcr_snv.xlsx
+++ b/Partial Components Regression/plot_infos_pcr_snv.xlsx
@@ -477,16 +477,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6983202269055727</v>
+        <v>0.6983202269057159</v>
       </c>
       <c r="D2" t="n">
-        <v>4.19886527614913</v>
+        <v>4.198865276147131</v>
       </c>
       <c r="E2" t="n">
-        <v>1.429581063126747</v>
+        <v>1.429581063126407</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6983202269055722</v>
+        <v>0.6983202269057156</v>
       </c>
     </row>
     <row r="3">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.6896071285765546</v>
+        <v>0.6896071285767009</v>
       </c>
       <c r="D3" t="n">
-        <v>4.325757900197462</v>
+        <v>4.325757900195409</v>
       </c>
       <c r="E3" t="n">
-        <v>1.472501160106388</v>
+        <v>1.472501160106041</v>
       </c>
       <c r="F3" t="n">
-        <v>0.679933728563809</v>
+        <v>0.6799337285639595</v>
       </c>
     </row>
     <row r="4">
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.4200685572530367</v>
+        <v>0.4200685799435919</v>
       </c>
       <c r="D4" t="n">
-        <v>1.914545898357321</v>
+        <v>1.914545823448276</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2384655942873526</v>
+        <v>0.2384655896222176</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4200685572530369</v>
+        <v>0.4200685799435925</v>
       </c>
     </row>
     <row r="5">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.3795649347936007</v>
+        <v>0.3795649615256661</v>
       </c>
       <c r="D5" t="n">
-        <v>2.047327891980246</v>
+        <v>2.047327805918666</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2576036505720172</v>
+        <v>0.25760363448408</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3232485011517222</v>
+        <v>0.3232485856810776</v>
       </c>
     </row>
     <row r="6">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.4443415628876685</v>
+        <v>0.4443415628871068</v>
       </c>
       <c r="D6" t="n">
-        <v>0.625341180317287</v>
+        <v>0.625341180317919</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4168251714804886</v>
+        <v>0.4168251714806993</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4443415628876689</v>
+        <v>0.4443415628871071</v>
       </c>
     </row>
     <row r="7">
@@ -597,16 +597,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4238434392702012</v>
+        <v>0.423843439269651</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6487759254446265</v>
+        <v>0.6487759254452292</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4348087519205488</v>
+        <v>0.4348087519207612</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3953603931593501</v>
+        <v>0.3953603931587593</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.4957164143343495</v>
+        <v>0.4957164161127786</v>
       </c>
       <c r="D8" t="n">
-        <v>259.2674178733775</v>
+        <v>259.2674169590336</v>
       </c>
       <c r="E8" t="n">
-        <v>71.78687273282378</v>
+        <v>71.78687260624041</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4957164143343502</v>
+        <v>0.4957164161127787</v>
       </c>
     </row>
     <row r="9">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.4726041600223095</v>
+        <v>0.4726041620261295</v>
       </c>
       <c r="D9" t="n">
-        <v>271.1753749264269</v>
+        <v>271.1753739127643</v>
       </c>
       <c r="E9" t="n">
-        <v>75.80335336996426</v>
+        <v>75.80335324419761</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4377083947250553</v>
+        <v>0.4377083965908708</v>
       </c>
     </row>
     <row r="10">
@@ -669,16 +669,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.6204366672464389</v>
+        <v>0.6204366672459227</v>
       </c>
       <c r="D10" t="n">
-        <v>5.798142536328919</v>
+        <v>5.798142536336802</v>
       </c>
       <c r="E10" t="n">
-        <v>1.938561107492297</v>
+        <v>1.938561107493614</v>
       </c>
       <c r="F10" t="n">
-        <v>0.620436667246439</v>
+        <v>0.6204366672459232</v>
       </c>
     </row>
     <row r="11">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6067678920337862</v>
+        <v>0.6067678920332961</v>
       </c>
       <c r="D11" t="n">
-        <v>6.01020564927658</v>
+        <v>6.010205649284016</v>
       </c>
       <c r="E11" t="n">
-        <v>2.012278428446951</v>
+        <v>2.012278428448186</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5910206280753398</v>
+        <v>0.5910206280748377</v>
       </c>
     </row>
   </sheetData>

--- a/Partial Components Regression/plot_infos_pcr_snv.xlsx
+++ b/Partial Components Regression/plot_infos_pcr_snv.xlsx
@@ -477,16 +477,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6983202269057159</v>
+        <v>0.7257523197931459</v>
       </c>
       <c r="D2" t="n">
-        <v>4.198865276147131</v>
+        <v>3.817057569599056</v>
       </c>
       <c r="E2" t="n">
-        <v>1.429581063126407</v>
+        <v>1.363035514247575</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6983202269057156</v>
+        <v>0.7257523197931457</v>
       </c>
     </row>
     <row r="3">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.6896071285767009</v>
+        <v>0.7143413178530797</v>
       </c>
       <c r="D3" t="n">
-        <v>4.325757900195409</v>
+        <v>3.975964136606144</v>
       </c>
       <c r="E3" t="n">
-        <v>1.472501160106041</v>
+        <v>1.462172020271649</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6799337285639595</v>
+        <v>0.6844083110598368</v>
       </c>
     </row>
     <row r="4">
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.4200685799435919</v>
+        <v>0.2208274643071332</v>
       </c>
       <c r="D4" t="n">
-        <v>1.914545823448276</v>
+        <v>2.572306780362553</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2384655896222176</v>
+        <v>0.2764102973443819</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4200685799435925</v>
+        <v>0.220827464307133</v>
       </c>
     </row>
     <row r="5">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.3795649615256661</v>
+        <v>0.200350224519713</v>
       </c>
       <c r="D5" t="n">
-        <v>2.047327805918666</v>
+        <v>2.640215549496584</v>
       </c>
       <c r="E5" t="n">
-        <v>0.25760363448408</v>
+        <v>0.2843422165241118</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3232485856810776</v>
+        <v>0.1754672905536122</v>
       </c>
     </row>
     <row r="6">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.4443415628871068</v>
+        <v>0.4463262469701371</v>
       </c>
       <c r="D6" t="n">
-        <v>0.625341180317919</v>
+        <v>0.6231076055098256</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4168251714806993</v>
+        <v>0.4160801037814331</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4443415628871071</v>
+        <v>0.446326246970137</v>
       </c>
     </row>
     <row r="7">
@@ -597,16 +597,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.423843439269651</v>
+        <v>0.4241068855029057</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6487759254452292</v>
+        <v>0.6482324452444937</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4348087519207612</v>
+        <v>0.4353507314332526</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3953603931587593</v>
+        <v>0.3938521138762955</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.4957164161127786</v>
+        <v>0.4351124807044907</v>
       </c>
       <c r="D8" t="n">
-        <v>259.2674169590336</v>
+        <v>290.4257300449753</v>
       </c>
       <c r="E8" t="n">
-        <v>71.78687260624041</v>
+        <v>75.9781313613845</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4957164161127787</v>
+        <v>0.435112480704491</v>
       </c>
     </row>
     <row r="9">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.4726041620261295</v>
+        <v>0.415339100968617</v>
       </c>
       <c r="D9" t="n">
-        <v>271.1753739127643</v>
+        <v>300.4003350860203</v>
       </c>
       <c r="E9" t="n">
-        <v>75.80335324419761</v>
+        <v>78.77358394294578</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4377083965908708</v>
+        <v>0.3927801320263483</v>
       </c>
     </row>
     <row r="10">
@@ -669,16 +669,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.6204366672459227</v>
+        <v>0.620685364174401</v>
       </c>
       <c r="D10" t="n">
-        <v>5.798142536336802</v>
+        <v>5.794343485914299</v>
       </c>
       <c r="E10" t="n">
-        <v>1.938561107493614</v>
+        <v>1.937925912850309</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6204366672459232</v>
+        <v>0.6206853641744012</v>
       </c>
     </row>
     <row r="11">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6067678920332961</v>
+        <v>0.6058007273239474</v>
       </c>
       <c r="D11" t="n">
-        <v>6.010205649284016</v>
+        <v>6.027106593323159</v>
       </c>
       <c r="E11" t="n">
-        <v>2.012278428448186</v>
+        <v>2.030112941361703</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5910206280748377</v>
+        <v>0.5837390607199583</v>
       </c>
     </row>
   </sheetData>

--- a/Partial Components Regression/plot_infos_pcr_snv.xlsx
+++ b/Partial Components Regression/plot_infos_pcr_snv.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,22 +446,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>R²</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Slope</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>R²</t>
         </is>
       </c>
     </row>
@@ -477,16 +477,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7257523197931459</v>
+        <v>0.725752312300771</v>
       </c>
       <c r="D2" t="n">
-        <v>3.817057569599056</v>
+        <v>1.363035532866461</v>
       </c>
       <c r="E2" t="n">
-        <v>1.363035514247575</v>
+        <v>3.817057673880066</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7257523197931457</v>
+        <v>0.7257523123007712</v>
       </c>
     </row>
     <row r="3">
@@ -501,40 +501,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7143413178530797</v>
+        <v>0.6844083075715417</v>
       </c>
       <c r="D3" t="n">
-        <v>3.975964136606144</v>
+        <v>1.462172028352482</v>
       </c>
       <c r="E3" t="n">
-        <v>1.462172020271649</v>
+        <v>3.975964250659266</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6844083110598368</v>
+        <v>0.714341310023144</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>SST</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Referência</t>
+          <t>Validação</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2208274643071332</v>
+        <v>0.6750277633089374</v>
       </c>
       <c r="D4" t="n">
-        <v>2.572306780362553</v>
+        <v>1.28067716930816</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2764102973443819</v>
+        <v>0.8794082431567105</v>
       </c>
       <c r="F4" t="n">
-        <v>0.220827464307133</v>
+        <v>0.9410054317098512</v>
       </c>
     </row>
     <row r="5">
@@ -545,74 +545,74 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Predição</t>
+          <t>Referência</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.200350224519713</v>
+        <v>0.2208274643071334</v>
       </c>
       <c r="D5" t="n">
-        <v>2.640215549496584</v>
+        <v>0.2764102973443819</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2843422165241118</v>
+        <v>2.572306780362552</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1754672905536122</v>
+        <v>0.2208274643071334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Referência</t>
+          <t>Predição</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.4463262469701371</v>
+        <v>0.1754672905536661</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6231076055098256</v>
+        <v>0.2843422165241026</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4160801037814331</v>
+        <v>2.640215549496488</v>
       </c>
       <c r="F6" t="n">
-        <v>0.446326246970137</v>
+        <v>0.2003502245197424</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Predição</t>
+          <t>Validação</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4241068855029057</v>
+        <v>0.3472123147864786</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6482324452444937</v>
+        <v>0.199461780340821</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4353507314332526</v>
+        <v>-1.242848334414727</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3938521138762955</v>
+        <v>1.370099221676297</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FIRMEZA (N)</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -621,22 +621,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.4351124807044907</v>
+        <v>0.4463262469582551</v>
       </c>
       <c r="D8" t="n">
-        <v>290.4257300449753</v>
+        <v>0.4160801037858976</v>
       </c>
       <c r="E8" t="n">
-        <v>75.9781313613845</v>
+        <v>0.6231076055231972</v>
       </c>
       <c r="F8" t="n">
-        <v>0.435112480704491</v>
+        <v>0.446326246958255</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FIRMEZA (N)</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -645,64 +645,184 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.415339100968617</v>
+        <v>0.3938521138578016</v>
       </c>
       <c r="D9" t="n">
-        <v>300.4003350860203</v>
+        <v>0.435350731439894</v>
       </c>
       <c r="E9" t="n">
-        <v>78.77358394294578</v>
+        <v>0.6482324452604232</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3927801320263483</v>
+        <v>0.4241068854878716</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UBS (%)</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Referência</t>
+          <t>Validação</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.620685364174401</v>
+        <v>0.611451678176929</v>
       </c>
       <c r="D10" t="n">
-        <v>5.794343485914299</v>
+        <v>0.3201363566043914</v>
       </c>
       <c r="E10" t="n">
-        <v>1.937925912850309</v>
+        <v>-0.2354241571362763</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6206853641744012</v>
+        <v>1.169788316409431</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>FIRMEZA (N)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Referência</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4351124807062247</v>
+      </c>
+      <c r="D11" t="n">
+        <v>75.97813136126791</v>
+      </c>
+      <c r="E11" t="n">
+        <v>290.425730044084</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.4351124807062243</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>FIRMEZA (N)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Predição</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.3927801320278301</v>
+      </c>
+      <c r="D12" t="n">
+        <v>78.77358394284965</v>
+      </c>
+      <c r="E12" t="n">
+        <v>300.4003350852541</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.4153391009701303</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>FIRMEZA (N)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Validação</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5890851004607165</v>
+      </c>
+      <c r="D13" t="n">
+        <v>52.4754321071346</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-47.31746203372461</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.066119045010663</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>UBS (%)</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Referência</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6206853641748344</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.937925912849202</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.794343485907681</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.6206853641748341</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>UBS (%)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Predição</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>0.6058007273239474</v>
-      </c>
-      <c r="D11" t="n">
-        <v>6.027106593323159</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.030112941361703</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.5837390607199583</v>
+      <c r="C15" t="n">
+        <v>0.5837390607208446</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.030112941359542</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6.027106593302635</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.605800727325329</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>UBS (%)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Validação</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.6862251751601254</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.343072576620295</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.770590634716598</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8857562505487779</v>
       </c>
     </row>
   </sheetData>

--- a/Partial Components Regression/plot_infos_pcr_snv.xlsx
+++ b/Partial Components Regression/plot_infos_pcr_snv.xlsx
@@ -477,16 +477,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.725752312300771</v>
+        <v>0.7257522983838396</v>
       </c>
       <c r="D2" t="n">
-        <v>1.363035532866461</v>
+        <v>1.363035567450657</v>
       </c>
       <c r="E2" t="n">
-        <v>3.817057673880066</v>
+        <v>3.817057867579887</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7257523123007712</v>
+        <v>0.7257522983838401</v>
       </c>
     </row>
     <row r="3">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.6844083075715417</v>
+        <v>0.6844082937418585</v>
       </c>
       <c r="D3" t="n">
-        <v>1.462172028352482</v>
+        <v>1.462172060389725</v>
       </c>
       <c r="E3" t="n">
-        <v>3.975964250659266</v>
+        <v>3.975964474068228</v>
       </c>
       <c r="F3" t="n">
-        <v>0.714341310023144</v>
+        <v>0.7143412945207351</v>
       </c>
     </row>
     <row r="4">
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.6750277633089374</v>
+        <v>0.6750277428457314</v>
       </c>
       <c r="D4" t="n">
-        <v>1.28067716930816</v>
+        <v>1.280677209629697</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8794082431567105</v>
+        <v>0.8794083634218417</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9410054317098512</v>
+        <v>0.9410054238008433</v>
       </c>
     </row>
     <row r="5">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.2208274643071334</v>
+        <v>0.2208274643071423</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2764102973443819</v>
+        <v>0.2764102973443803</v>
       </c>
       <c r="E5" t="n">
-        <v>2.572306780362552</v>
+        <v>2.572306780362522</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2208274643071334</v>
+        <v>0.2208274643071424</v>
       </c>
     </row>
     <row r="6">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1754672905536661</v>
+        <v>0.1754672905536598</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2843422165241026</v>
+        <v>0.2843422165241036</v>
       </c>
       <c r="E6" t="n">
-        <v>2.640215549496488</v>
+        <v>2.640215549496494</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2003502245197424</v>
+        <v>0.2003502245197398</v>
       </c>
     </row>
     <row r="7">
@@ -597,16 +597,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.3472123147864786</v>
+        <v>0.3472123147864853</v>
       </c>
       <c r="D7" t="n">
-        <v>0.199461780340821</v>
+        <v>0.19946178034082</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.242848334414727</v>
+        <v>-1.242848334414898</v>
       </c>
       <c r="F7" t="n">
-        <v>1.370099221676297</v>
+        <v>1.370099221676349</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.4463262469582551</v>
+        <v>0.4463262469599095</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4160801037858976</v>
+        <v>0.416080103785276</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6231076055231972</v>
+        <v>0.6231076055213353</v>
       </c>
       <c r="F8" t="n">
-        <v>0.446326246958255</v>
+        <v>0.4463262469599095</v>
       </c>
     </row>
     <row r="9">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.3938521138578016</v>
+        <v>0.3938521138602258</v>
       </c>
       <c r="D9" t="n">
-        <v>0.435350731439894</v>
+        <v>0.4353507314390235</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6482324452604232</v>
+        <v>0.6482324452583936</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4241068854878716</v>
+        <v>0.42410688548989</v>
       </c>
     </row>
     <row r="10">
@@ -669,16 +669,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.611451678176929</v>
+        <v>0.6114516781862995</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3201363566043914</v>
+        <v>0.3201363566005311</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2354241571362763</v>
+        <v>-0.2354241571488545</v>
       </c>
       <c r="F10" t="n">
-        <v>1.169788316409431</v>
+        <v>1.169788316412977</v>
       </c>
     </row>
     <row r="11">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.4351124807062247</v>
+        <v>0.4351124807047146</v>
       </c>
       <c r="D11" t="n">
-        <v>75.97813136126791</v>
+        <v>75.97813136136946</v>
       </c>
       <c r="E11" t="n">
-        <v>290.425730044084</v>
+        <v>290.4257300448603</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4351124807062243</v>
+        <v>0.4351124807047142</v>
       </c>
     </row>
     <row r="12">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.3927801320278301</v>
+        <v>0.392780132026634</v>
       </c>
       <c r="D12" t="n">
-        <v>78.77358394284965</v>
+        <v>78.77358394292725</v>
       </c>
       <c r="E12" t="n">
-        <v>300.4003350852541</v>
+        <v>300.4003350859012</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4153391009701303</v>
+        <v>0.415339100968847</v>
       </c>
     </row>
     <row r="13">
@@ -741,16 +741,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.5890851004607165</v>
+        <v>0.5890851004605406</v>
       </c>
       <c r="D13" t="n">
-        <v>52.4754321071346</v>
+        <v>52.47543210714583</v>
       </c>
       <c r="E13" t="n">
-        <v>-47.31746203372461</v>
+        <v>-47.31746203381908</v>
       </c>
       <c r="F13" t="n">
-        <v>1.066119045010663</v>
+        <v>1.066119045010822</v>
       </c>
     </row>
     <row r="14">
@@ -765,16 +765,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.6206853641748344</v>
+        <v>0.6206853641744747</v>
       </c>
       <c r="D14" t="n">
-        <v>1.937925912849202</v>
+        <v>1.937925912850121</v>
       </c>
       <c r="E14" t="n">
-        <v>5.794343485907681</v>
+        <v>5.794343485913172</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6206853641748341</v>
+        <v>0.6206853641744745</v>
       </c>
     </row>
     <row r="15">
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.5837390607208446</v>
+        <v>0.5837390607201374</v>
       </c>
       <c r="D15" t="n">
-        <v>2.030112941359542</v>
+        <v>2.030112941361266</v>
       </c>
       <c r="E15" t="n">
-        <v>6.027106593302635</v>
+        <v>6.027106593320795</v>
       </c>
       <c r="F15" t="n">
-        <v>0.605800727325329</v>
+        <v>0.6058007273241002</v>
       </c>
     </row>
     <row r="16">
@@ -813,16 +813,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.6862251751601254</v>
+        <v>0.6862251751610086</v>
       </c>
       <c r="D16" t="n">
-        <v>1.343072576620295</v>
+        <v>1.343072576618405</v>
       </c>
       <c r="E16" t="n">
-        <v>1.770590634716598</v>
+        <v>1.770590634709077</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8857562505487779</v>
+        <v>0.8857562505487743</v>
       </c>
     </row>
   </sheetData>
